--- a/Dataset/OAIZIB/CartiMorph_dataset4.xlsx
+++ b/Dataset/OAIZIB/CartiMorph_dataset4.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/knee-cartilage-thickness-matlab/Data/OAI-ZIB-seg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/GitHub_YongchengYAO/CartiMorph/Dataset/OAIZIB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17365312-FBFE-CE4A-923F-4A12A6554AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFB66E-CF20-1844-902F-BF01F320DA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{7962103B-7755-9A4C-A90F-E14D56202D9E}"/>
+    <workbookView xWindow="3540" yWindow="1820" windowWidth="26700" windowHeight="16440" xr2:uid="{7962103B-7755-9A4C-A90F-E14D56202D9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
